--- a/WorkTime/2020年加班.xlsx
+++ b/WorkTime/2020年加班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8340" activeTab="5"/>
+    <workbookView windowWidth="21930" windowHeight="9510" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="3月" sheetId="64" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="177">
   <si>
     <t>共计(小时)</t>
   </si>
@@ -548,16 +548,19 @@
   <si>
     <t>奖罚中包含NX659J项目浮动激励300元</t>
   </si>
+  <si>
+    <t>奖罚中包月浮动400元</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -747,9 +750,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,8 +764,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,6 +811,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -820,19 +835,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,13 +859,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,13 +895,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,7 +919,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,7 +937,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,19 +961,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,19 +973,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,10 +1241,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1250,16 +1253,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1271,10 +1274,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1295,28 +1298,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1325,62 +1328,62 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1477,15 +1480,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6340,52 +6334,52 @@
         <f t="shared" ref="L3:L48" si="11">IF(LEN(CLEAN(N3))=13,MID(N3,8,5),IF(LEN(CLEAN(N3))=19,MID(N3,14,5),0))</f>
         <v>0</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="P3" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31" t="s">
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31" t="s">
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="31" t="s">
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU3" s="11"/>
@@ -6439,52 +6433,52 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31" t="s">
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="28"/>
+      <c r="AP4" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31" t="s">
+      <c r="AQ4" s="28"/>
+      <c r="AR4" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS4" s="31"/>
-      <c r="AT4" s="31" t="s">
+      <c r="AS4" s="28"/>
+      <c r="AT4" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU4" s="11"/>
@@ -6538,56 +6532,56 @@
         <f t="shared" si="11"/>
         <v>19:01</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="31" t="s">
+      <c r="O5" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="31" t="s">
+      <c r="P5" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="33" t="s">
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="31" t="s">
+      <c r="AO5" s="28"/>
+      <c r="AP5" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AQ5" s="33" t="s">
+      <c r="AQ5" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AR5" s="31" t="s">
+      <c r="AR5" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS5" s="31"/>
-      <c r="AT5" s="31" t="s">
+      <c r="AS5" s="28"/>
+      <c r="AT5" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU5" s="11"/>
@@ -6641,56 +6635,56 @@
         <f t="shared" si="11"/>
         <v>18:33</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="31" t="s">
+      <c r="O6" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="31" t="s">
+      <c r="P6" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
-      <c r="AN6" s="33" t="s">
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="AO6" s="31"/>
-      <c r="AP6" s="31" t="s">
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AQ6" s="33" t="s">
+      <c r="AQ6" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AR6" s="31" t="s">
+      <c r="AR6" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS6" s="31"/>
-      <c r="AT6" s="31" t="s">
+      <c r="AS6" s="28"/>
+      <c r="AT6" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU6" s="11"/>
@@ -6744,56 +6738,56 @@
         <f t="shared" si="11"/>
         <v>18:56</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="O7" s="31" t="s">
+      <c r="O7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="31" t="s">
+      <c r="P7" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="33" t="s">
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="31" t="s">
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AQ7" s="33" t="s">
+      <c r="AQ7" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AR7" s="31" t="s">
+      <c r="AR7" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS7" s="31"/>
-      <c r="AT7" s="31" t="s">
+      <c r="AS7" s="28"/>
+      <c r="AT7" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU7" s="11"/>
@@ -6847,56 +6841,56 @@
         <f t="shared" si="11"/>
         <v>19:36</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="N8" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="31" t="s">
+      <c r="O8" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="31" t="s">
+      <c r="P8" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="31"/>
-      <c r="AM8" s="31"/>
-      <c r="AN8" s="33" t="s">
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="AO8" s="31"/>
-      <c r="AP8" s="31" t="s">
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AQ8" s="33" t="s">
+      <c r="AQ8" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AR8" s="31" t="s">
+      <c r="AR8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS8" s="31"/>
-      <c r="AT8" s="31" t="s">
+      <c r="AS8" s="28"/>
+      <c r="AT8" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU8" s="11"/>
@@ -6950,56 +6944,56 @@
         <f t="shared" si="11"/>
         <v>18:46</v>
       </c>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="O9" s="31" t="s">
+      <c r="O9" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="31" t="s">
+      <c r="P9" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31"/>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="33" t="s">
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="28"/>
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31" t="s">
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AQ9" s="33" t="s">
+      <c r="AQ9" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AR9" s="31" t="s">
+      <c r="AR9" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="31" t="s">
+      <c r="AS9" s="28"/>
+      <c r="AT9" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU9" s="11"/>
@@ -7053,56 +7047,56 @@
         <f t="shared" si="11"/>
         <v>19:59</v>
       </c>
-      <c r="M10" s="31" t="s">
+      <c r="M10" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="N10" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="O10" s="31" t="s">
+      <c r="O10" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="31" t="s">
+      <c r="P10" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
-      <c r="AM10" s="31"/>
-      <c r="AN10" s="33" t="s">
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="AO10" s="31"/>
-      <c r="AP10" s="31" t="s">
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AQ10" s="33" t="s">
+      <c r="AQ10" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AR10" s="31" t="s">
+      <c r="AR10" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS10" s="31"/>
-      <c r="AT10" s="31" t="s">
+      <c r="AS10" s="28"/>
+      <c r="AT10" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU10" s="11"/>
@@ -7156,52 +7150,52 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="O11" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="P11" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="31"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="31"/>
-      <c r="AM11" s="31"/>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="31"/>
-      <c r="AP11" s="31" t="s">
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="28"/>
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AQ11" s="31"/>
-      <c r="AR11" s="31" t="s">
+      <c r="AQ11" s="28"/>
+      <c r="AR11" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS11" s="31"/>
-      <c r="AT11" s="31" t="s">
+      <c r="AS11" s="28"/>
+      <c r="AT11" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU11" s="11"/>
@@ -7255,58 +7249,58 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M12" s="31" t="s">
+      <c r="M12" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="N12" s="31" t="s">
+      <c r="N12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="31" t="s">
+      <c r="O12" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="31" t="s">
+      <c r="P12" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q12" s="33" t="s">
+      <c r="Q12" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="33" t="s">
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="33" t="s">
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="31"/>
-      <c r="AM12" s="31"/>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="31" t="s">
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="28"/>
+      <c r="AL12" s="28"/>
+      <c r="AM12" s="28"/>
+      <c r="AN12" s="28"/>
+      <c r="AO12" s="28"/>
+      <c r="AP12" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AQ12" s="31"/>
-      <c r="AR12" s="31" t="s">
+      <c r="AQ12" s="28"/>
+      <c r="AR12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS12" s="31"/>
-      <c r="AT12" s="31" t="s">
+      <c r="AS12" s="28"/>
+      <c r="AT12" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU12" s="11"/>
@@ -7360,58 +7354,58 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M13" s="31" t="s">
+      <c r="M13" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="31" t="s">
+      <c r="O13" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="31" t="s">
+      <c r="P13" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q13" s="33" t="s">
+      <c r="Q13" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="33" t="s">
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="33" t="s">
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="31"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="31"/>
-      <c r="AM13" s="31"/>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="31"/>
-      <c r="AP13" s="31" t="s">
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="28"/>
+      <c r="AL13" s="28"/>
+      <c r="AM13" s="28"/>
+      <c r="AN13" s="28"/>
+      <c r="AO13" s="28"/>
+      <c r="AP13" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="31" t="s">
+      <c r="AQ13" s="28"/>
+      <c r="AR13" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS13" s="31"/>
-      <c r="AT13" s="31" t="s">
+      <c r="AS13" s="28"/>
+      <c r="AT13" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU13" s="11"/>
@@ -7465,58 +7459,58 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M14" s="31" t="s">
+      <c r="M14" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="N14" s="31" t="s">
+      <c r="N14" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P14" s="31" t="s">
+      <c r="P14" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="33" t="s">
+      <c r="Q14" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="33" t="s">
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="33" t="s">
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="31"/>
-      <c r="AM14" s="31"/>
-      <c r="AN14" s="31"/>
-      <c r="AO14" s="31"/>
-      <c r="AP14" s="31" t="s">
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="28"/>
+      <c r="AO14" s="28"/>
+      <c r="AP14" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AQ14" s="31"/>
-      <c r="AR14" s="31" t="s">
+      <c r="AQ14" s="28"/>
+      <c r="AR14" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS14" s="31"/>
-      <c r="AT14" s="31" t="s">
+      <c r="AS14" s="28"/>
+      <c r="AT14" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU14" s="11"/>
@@ -7570,58 +7564,58 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M15" s="31" t="s">
+      <c r="M15" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="N15" s="31" t="s">
+      <c r="N15" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="O15" s="31" t="s">
+      <c r="O15" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="31" t="s">
+      <c r="P15" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q15" s="33" t="s">
+      <c r="Q15" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="33" t="s">
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="33" t="s">
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="31"/>
-      <c r="AM15" s="31"/>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="31"/>
-      <c r="AP15" s="31" t="s">
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AQ15" s="31"/>
-      <c r="AR15" s="31" t="s">
+      <c r="AQ15" s="28"/>
+      <c r="AR15" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS15" s="31"/>
-      <c r="AT15" s="31" t="s">
+      <c r="AS15" s="28"/>
+      <c r="AT15" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU15" s="11"/>
@@ -7675,58 +7669,58 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M16" s="31" t="s">
+      <c r="M16" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="N16" s="31" t="s">
+      <c r="N16" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="O16" s="31" t="s">
+      <c r="O16" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P16" s="31" t="s">
+      <c r="P16" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q16" s="33" t="s">
+      <c r="Q16" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="33" t="s">
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="33" t="s">
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="31"/>
-      <c r="AN16" s="31"/>
-      <c r="AO16" s="31"/>
-      <c r="AP16" s="31" t="s">
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="28"/>
+      <c r="AO16" s="28"/>
+      <c r="AP16" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AQ16" s="31"/>
-      <c r="AR16" s="31" t="s">
+      <c r="AQ16" s="28"/>
+      <c r="AR16" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS16" s="31"/>
-      <c r="AT16" s="31" t="s">
+      <c r="AS16" s="28"/>
+      <c r="AT16" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU16" s="11"/>
@@ -7780,52 +7774,52 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M17" s="31" t="s">
+      <c r="M17" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="N17" s="31" t="s">
+      <c r="N17" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="31" t="s">
+      <c r="O17" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="31" t="s">
+      <c r="P17" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="31"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="31"/>
-      <c r="AM17" s="31"/>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="31"/>
-      <c r="AP17" s="31" t="s">
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="28"/>
+      <c r="AO17" s="28"/>
+      <c r="AP17" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="31" t="s">
+      <c r="AQ17" s="28"/>
+      <c r="AR17" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS17" s="31"/>
-      <c r="AT17" s="31" t="s">
+      <c r="AS17" s="28"/>
+      <c r="AT17" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU17" s="11"/>
@@ -7879,52 +7873,52 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M18" s="31" t="s">
+      <c r="M18" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="N18" s="31" t="s">
+      <c r="N18" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="O18" s="31" t="s">
+      <c r="O18" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P18" s="31" t="s">
+      <c r="P18" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="31" t="s">
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="28"/>
+      <c r="AO18" s="28"/>
+      <c r="AP18" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="31" t="s">
+      <c r="AQ18" s="28"/>
+      <c r="AR18" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS18" s="31"/>
-      <c r="AT18" s="31" t="s">
+      <c r="AS18" s="28"/>
+      <c r="AT18" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU18" s="11"/>
@@ -7978,58 +7972,58 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M19" s="31" t="s">
+      <c r="M19" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="N19" s="31" t="s">
+      <c r="N19" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="O19" s="31" t="s">
+      <c r="O19" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P19" s="31" t="s">
+      <c r="P19" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q19" s="33" t="s">
+      <c r="Q19" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="33" t="s">
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="33" t="s">
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="31"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="31"/>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="31"/>
-      <c r="AM19" s="31"/>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="31"/>
-      <c r="AP19" s="31" t="s">
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="28"/>
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="28"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="31" t="s">
+      <c r="AQ19" s="28"/>
+      <c r="AR19" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS19" s="31"/>
-      <c r="AT19" s="31" t="s">
+      <c r="AS19" s="28"/>
+      <c r="AT19" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU19" s="11"/>
@@ -8083,58 +8077,58 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M20" s="31" t="s">
+      <c r="M20" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="N20" s="31" t="s">
+      <c r="N20" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="O20" s="31" t="s">
+      <c r="O20" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P20" s="31" t="s">
+      <c r="P20" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q20" s="33" t="s">
+      <c r="Q20" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="33" t="s">
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="33" t="s">
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="31"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="31"/>
-      <c r="AM20" s="31"/>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="31"/>
-      <c r="AP20" s="31" t="s">
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="28"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="31" t="s">
+      <c r="AQ20" s="28"/>
+      <c r="AR20" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS20" s="31"/>
-      <c r="AT20" s="31" t="s">
+      <c r="AS20" s="28"/>
+      <c r="AT20" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU20" s="11"/>
@@ -8188,58 +8182,58 @@
         <f t="shared" si="11"/>
         <v>19:34</v>
       </c>
-      <c r="M21" s="31" t="s">
+      <c r="M21" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="N21" s="31" t="s">
+      <c r="N21" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="O21" s="31" t="s">
+      <c r="O21" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P21" s="31" t="s">
+      <c r="P21" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" s="33" t="s">
+      <c r="Q21" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R21" s="33" t="s">
+      <c r="R21" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="31"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="31"/>
-      <c r="AM21" s="31"/>
-      <c r="AN21" s="31"/>
-      <c r="AO21" s="31"/>
-      <c r="AP21" s="31" t="s">
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="28"/>
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="28"/>
+      <c r="AN21" s="28"/>
+      <c r="AO21" s="28"/>
+      <c r="AP21" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AQ21" s="33" t="s">
+      <c r="AQ21" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AR21" s="31" t="s">
+      <c r="AR21" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS21" s="31"/>
-      <c r="AT21" s="31" t="s">
+      <c r="AS21" s="28"/>
+      <c r="AT21" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU21" s="11"/>
@@ -8293,58 +8287,58 @@
         <f t="shared" si="11"/>
         <v>21:53</v>
       </c>
-      <c r="M22" s="31" t="s">
+      <c r="M22" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="N22" s="31" t="s">
+      <c r="N22" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="O22" s="31" t="s">
+      <c r="O22" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P22" s="31" t="s">
+      <c r="P22" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q22" s="33" t="s">
+      <c r="Q22" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R22" s="33" t="s">
+      <c r="R22" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="31"/>
-      <c r="AM22" s="31"/>
-      <c r="AN22" s="31"/>
-      <c r="AO22" s="31"/>
-      <c r="AP22" s="31" t="s">
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="28"/>
+      <c r="AN22" s="28"/>
+      <c r="AO22" s="28"/>
+      <c r="AP22" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AQ22" s="33" t="s">
+      <c r="AQ22" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AR22" s="31" t="s">
+      <c r="AR22" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS22" s="31"/>
-      <c r="AT22" s="31" t="s">
+      <c r="AS22" s="28"/>
+      <c r="AT22" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU22" s="11"/>
@@ -8398,58 +8392,58 @@
         <f t="shared" si="11"/>
         <v>19:34</v>
       </c>
-      <c r="M23" s="31" t="s">
+      <c r="M23" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="N23" s="31" t="s">
+      <c r="N23" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="O23" s="31" t="s">
+      <c r="O23" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="31" t="s">
+      <c r="P23" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q23" s="33" t="s">
+      <c r="Q23" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R23" s="33" t="s">
+      <c r="R23" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="31"/>
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="31"/>
-      <c r="AI23" s="31"/>
-      <c r="AJ23" s="31"/>
-      <c r="AK23" s="31"/>
-      <c r="AL23" s="31"/>
-      <c r="AM23" s="31"/>
-      <c r="AN23" s="31"/>
-      <c r="AO23" s="31"/>
-      <c r="AP23" s="31" t="s">
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="28"/>
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="28"/>
+      <c r="AN23" s="28"/>
+      <c r="AO23" s="28"/>
+      <c r="AP23" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AQ23" s="33" t="s">
+      <c r="AQ23" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AR23" s="31" t="s">
+      <c r="AR23" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS23" s="31"/>
-      <c r="AT23" s="31" t="s">
+      <c r="AS23" s="28"/>
+      <c r="AT23" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU23" s="11"/>
@@ -8503,56 +8497,56 @@
         <f t="shared" si="11"/>
         <v>19:00</v>
       </c>
-      <c r="M24" s="31" t="s">
+      <c r="M24" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="N24" s="31" t="s">
+      <c r="N24" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="O24" s="31" t="s">
+      <c r="O24" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P24" s="31" t="s">
+      <c r="P24" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
-      <c r="AK24" s="31"/>
-      <c r="AL24" s="31"/>
-      <c r="AM24" s="31"/>
-      <c r="AN24" s="33" t="s">
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="AO24" s="31"/>
-      <c r="AP24" s="31" t="s">
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AQ24" s="33" t="s">
+      <c r="AQ24" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AR24" s="31" t="s">
+      <c r="AR24" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS24" s="31"/>
-      <c r="AT24" s="31" t="s">
+      <c r="AS24" s="28"/>
+      <c r="AT24" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU24" s="11"/>
@@ -8606,52 +8600,52 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M25" s="31" t="s">
+      <c r="M25" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="31" t="s">
+      <c r="N25" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="O25" s="31" t="s">
+      <c r="O25" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P25" s="31" t="s">
+      <c r="P25" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
-      <c r="AK25" s="31"/>
-      <c r="AL25" s="31"/>
-      <c r="AM25" s="31"/>
-      <c r="AN25" s="31"/>
-      <c r="AO25" s="31"/>
-      <c r="AP25" s="31" t="s">
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="28"/>
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="28"/>
+      <c r="AN25" s="28"/>
+      <c r="AO25" s="28"/>
+      <c r="AP25" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AQ25" s="31"/>
-      <c r="AR25" s="31" t="s">
+      <c r="AQ25" s="28"/>
+      <c r="AR25" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS25" s="31"/>
-      <c r="AT25" s="31" t="s">
+      <c r="AS25" s="28"/>
+      <c r="AT25" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU25" s="11"/>
@@ -8705,58 +8699,58 @@
         <f t="shared" si="11"/>
         <v>20:30</v>
       </c>
-      <c r="M26" s="31" t="s">
+      <c r="M26" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="N26" s="31" t="s">
+      <c r="N26" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P26" s="31" t="s">
+      <c r="P26" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q26" s="33" t="s">
+      <c r="Q26" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R26" s="33" t="s">
+      <c r="R26" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="31"/>
-      <c r="AH26" s="31"/>
-      <c r="AI26" s="31"/>
-      <c r="AJ26" s="31"/>
-      <c r="AK26" s="31"/>
-      <c r="AL26" s="31"/>
-      <c r="AM26" s="31"/>
-      <c r="AN26" s="31"/>
-      <c r="AO26" s="31"/>
-      <c r="AP26" s="31" t="s">
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="28"/>
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="28"/>
+      <c r="AN26" s="28"/>
+      <c r="AO26" s="28"/>
+      <c r="AP26" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AQ26" s="33" t="s">
+      <c r="AQ26" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AR26" s="31" t="s">
+      <c r="AR26" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS26" s="31"/>
-      <c r="AT26" s="31" t="s">
+      <c r="AS26" s="28"/>
+      <c r="AT26" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU26" s="11"/>
@@ -8810,58 +8804,58 @@
         <f t="shared" si="11"/>
         <v>19:49</v>
       </c>
-      <c r="M27" s="31" t="s">
+      <c r="M27" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="N27" s="31" t="s">
+      <c r="N27" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="O27" s="31" t="s">
+      <c r="O27" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P27" s="31" t="s">
+      <c r="P27" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q27" s="33" t="s">
+      <c r="Q27" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R27" s="33" t="s">
+      <c r="R27" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="31"/>
-      <c r="AG27" s="31"/>
-      <c r="AH27" s="31"/>
-      <c r="AI27" s="31"/>
-      <c r="AJ27" s="31"/>
-      <c r="AK27" s="31"/>
-      <c r="AL27" s="31"/>
-      <c r="AM27" s="31"/>
-      <c r="AN27" s="31"/>
-      <c r="AO27" s="31"/>
-      <c r="AP27" s="31" t="s">
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="28"/>
+      <c r="AL27" s="28"/>
+      <c r="AM27" s="28"/>
+      <c r="AN27" s="28"/>
+      <c r="AO27" s="28"/>
+      <c r="AP27" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AQ27" s="33" t="s">
+      <c r="AQ27" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AR27" s="31" t="s">
+      <c r="AR27" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS27" s="31"/>
-      <c r="AT27" s="31" t="s">
+      <c r="AS27" s="28"/>
+      <c r="AT27" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU27" s="11"/>
@@ -8915,58 +8909,58 @@
         <f t="shared" si="11"/>
         <v>20:11</v>
       </c>
-      <c r="M28" s="31" t="s">
+      <c r="M28" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="N28" s="31" t="s">
+      <c r="N28" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="O28" s="31" t="s">
+      <c r="O28" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P28" s="31" t="s">
+      <c r="P28" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q28" s="33" t="s">
+      <c r="Q28" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R28" s="33" t="s">
+      <c r="R28" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="31"/>
-      <c r="AG28" s="31"/>
-      <c r="AH28" s="31"/>
-      <c r="AI28" s="31"/>
-      <c r="AJ28" s="31"/>
-      <c r="AK28" s="31"/>
-      <c r="AL28" s="31"/>
-      <c r="AM28" s="31"/>
-      <c r="AN28" s="31"/>
-      <c r="AO28" s="31"/>
-      <c r="AP28" s="31" t="s">
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="28"/>
+      <c r="AL28" s="28"/>
+      <c r="AM28" s="28"/>
+      <c r="AN28" s="28"/>
+      <c r="AO28" s="28"/>
+      <c r="AP28" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AQ28" s="33" t="s">
+      <c r="AQ28" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AR28" s="31" t="s">
+      <c r="AR28" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS28" s="31"/>
-      <c r="AT28" s="31" t="s">
+      <c r="AS28" s="28"/>
+      <c r="AT28" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU28" s="11"/>
@@ -9020,58 +9014,58 @@
         <f t="shared" si="11"/>
         <v>19:30</v>
       </c>
-      <c r="M29" s="31" t="s">
+      <c r="M29" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="N29" s="31" t="s">
+      <c r="N29" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="O29" s="31" t="s">
+      <c r="O29" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P29" s="31" t="s">
+      <c r="P29" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q29" s="33" t="s">
+      <c r="Q29" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R29" s="33" t="s">
+      <c r="R29" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="31"/>
-      <c r="AG29" s="31"/>
-      <c r="AH29" s="31"/>
-      <c r="AI29" s="31"/>
-      <c r="AJ29" s="31"/>
-      <c r="AK29" s="31"/>
-      <c r="AL29" s="31"/>
-      <c r="AM29" s="31"/>
-      <c r="AN29" s="31"/>
-      <c r="AO29" s="31"/>
-      <c r="AP29" s="31" t="s">
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="28"/>
+      <c r="AJ29" s="28"/>
+      <c r="AK29" s="28"/>
+      <c r="AL29" s="28"/>
+      <c r="AM29" s="28"/>
+      <c r="AN29" s="28"/>
+      <c r="AO29" s="28"/>
+      <c r="AP29" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AQ29" s="33" t="s">
+      <c r="AQ29" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AR29" s="31" t="s">
+      <c r="AR29" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS29" s="31"/>
-      <c r="AT29" s="31" t="s">
+      <c r="AS29" s="28"/>
+      <c r="AT29" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU29" s="11"/>
@@ -9125,58 +9119,58 @@
         <f t="shared" si="11"/>
         <v>19:44</v>
       </c>
-      <c r="M30" s="31" t="s">
+      <c r="M30" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="N30" s="31" t="s">
+      <c r="N30" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="O30" s="31" t="s">
+      <c r="O30" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P30" s="31" t="s">
+      <c r="P30" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q30" s="33" t="s">
+      <c r="Q30" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R30" s="33" t="s">
+      <c r="R30" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="31"/>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="31"/>
-      <c r="AK30" s="31"/>
-      <c r="AL30" s="31"/>
-      <c r="AM30" s="31"/>
-      <c r="AN30" s="31"/>
-      <c r="AO30" s="31"/>
-      <c r="AP30" s="31" t="s">
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="28"/>
+      <c r="AG30" s="28"/>
+      <c r="AH30" s="28"/>
+      <c r="AI30" s="28"/>
+      <c r="AJ30" s="28"/>
+      <c r="AK30" s="28"/>
+      <c r="AL30" s="28"/>
+      <c r="AM30" s="28"/>
+      <c r="AN30" s="28"/>
+      <c r="AO30" s="28"/>
+      <c r="AP30" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AQ30" s="33" t="s">
+      <c r="AQ30" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AR30" s="31" t="s">
+      <c r="AR30" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS30" s="31"/>
-      <c r="AT30" s="31" t="s">
+      <c r="AS30" s="28"/>
+      <c r="AT30" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU30" s="11"/>
@@ -9230,52 +9224,52 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M31" s="31" t="s">
+      <c r="M31" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="31" t="s">
+      <c r="N31" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="O31" s="31" t="s">
+      <c r="O31" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P31" s="31" t="s">
+      <c r="P31" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="31"/>
-      <c r="AD31" s="31"/>
-      <c r="AE31" s="31"/>
-      <c r="AF31" s="31"/>
-      <c r="AG31" s="31"/>
-      <c r="AH31" s="31"/>
-      <c r="AI31" s="31"/>
-      <c r="AJ31" s="31"/>
-      <c r="AK31" s="31"/>
-      <c r="AL31" s="31"/>
-      <c r="AM31" s="31"/>
-      <c r="AN31" s="31"/>
-      <c r="AO31" s="31"/>
-      <c r="AP31" s="31" t="s">
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="28"/>
+      <c r="AH31" s="28"/>
+      <c r="AI31" s="28"/>
+      <c r="AJ31" s="28"/>
+      <c r="AK31" s="28"/>
+      <c r="AL31" s="28"/>
+      <c r="AM31" s="28"/>
+      <c r="AN31" s="28"/>
+      <c r="AO31" s="28"/>
+      <c r="AP31" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AQ31" s="31"/>
-      <c r="AR31" s="31" t="s">
+      <c r="AQ31" s="28"/>
+      <c r="AR31" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AS31" s="31"/>
-      <c r="AT31" s="31" t="s">
+      <c r="AS31" s="28"/>
+      <c r="AT31" s="28" t="s">
         <v>53</v>
       </c>
       <c r="AU31" s="11"/>
@@ -9329,40 +9323,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M32" s="32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-      <c r="AA32"/>
-      <c r="AB32"/>
-      <c r="AC32"/>
-      <c r="AD32"/>
-      <c r="AE32"/>
-      <c r="AF32"/>
-      <c r="AG32"/>
-      <c r="AH32"/>
-      <c r="AI32"/>
-      <c r="AJ32"/>
-      <c r="AK32"/>
-      <c r="AL32"/>
-      <c r="AM32"/>
-      <c r="AN32"/>
-      <c r="AO32"/>
-      <c r="AP32"/>
-      <c r="AQ32"/>
-      <c r="AR32"/>
-      <c r="AS32"/>
-      <c r="AT32"/>
+      <c r="M32" s="29"/>
       <c r="AU32" s="11"/>
     </row>
     <row r="33" ht="14.25" spans="1:47">
@@ -23936,8 +23897,8 @@
   <sheetPr/>
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -24149,13 +24110,73 @@
         <v>22366.53</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:22">
       <c r="A4" s="3">
         <v>43891</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="2">
+        <v>10680</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10680</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7120</v>
+      </c>
+      <c r="F4">
+        <v>400</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1200</v>
+      </c>
+      <c r="K4">
+        <v>390</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>19790</v>
+      </c>
+      <c r="N4">
+        <v>854.4</v>
+      </c>
+      <c r="O4" s="2">
+        <v>18.62</v>
+      </c>
+      <c r="P4" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>850</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1306.03</v>
+      </c>
+      <c r="U4">
+        <v>16754.35</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3">
